--- a/source/2015 Master Product Listing Clay Internet.xlsx
+++ b/source/2015 Master Product Listing Clay Internet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51195" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Full Head Masks" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Albino_Ghoul" localSheetId="4">Makeup!#REF!</definedName>
     <definedName name="Albino_Ghoul">'Full Head Masks'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -682,7 +682,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +720,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -927,7 +933,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,10 +948,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -977,7 +979,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1073,6 +1074,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="111">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1455,7 +1497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1469,22 +1511,22 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,1116 +1539,1116 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="56">
         <v>20</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="57">
         <v>39.99</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="56">
         <v>30</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="57">
         <v>59.99</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="56">
         <v>24</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="57">
         <v>49.99</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="56">
         <v>39.5</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="57">
         <v>79.989999999999995</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="56">
         <v>12</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="57">
         <v>24.99</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="49"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="56">
         <v>39.5</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="57">
         <v>79.989999999999995</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="56">
         <v>26.5</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="57">
         <v>54.99</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="49"/>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+    </row>
+    <row r="9" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="56">
         <v>56</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="57">
         <f>C9*2</f>
         <v>112</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="56">
         <v>34.5</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="57">
         <v>69.989999999999995</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+    </row>
+    <row r="11" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="56">
         <v>42</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="57">
         <f>C11*2</f>
         <v>84</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="64">
         <v>20</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="65">
         <v>39.99</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="49"/>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="56">
         <v>28.5</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="64">
         <v>59.99</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="1:6" ht="19" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" s="60" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="56">
         <v>64</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="57">
         <f>C14*2</f>
         <v>128</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="49"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="1:6" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="56">
         <v>32</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="57">
         <v>59.99</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="56">
         <v>23</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="57">
         <v>49.99</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="49"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="67">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="64">
         <v>49.99</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="67">
         <v>25</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="64">
         <v>49.99</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="49"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="67">
         <v>22</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="64">
         <v>49.99</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="56">
         <v>28.5</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="64">
         <v>59.99</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="49"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="64">
         <v>23</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="65">
         <f>C21*2</f>
         <v>46</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="20" t="s">
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="64">
         <v>26</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="65">
         <f>C22*2</f>
         <v>52</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="68"/>
+    </row>
+    <row r="23" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="64">
         <v>23</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="65">
         <f>C23*2</f>
         <v>46</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1">
-      <c r="A24" s="20" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="64">
         <v>28</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="65">
         <f>C24*2</f>
         <v>56</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="64">
         <v>29.5</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="65">
         <v>59.99</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="64">
         <v>29.5</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="65">
         <v>59.99</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="64">
         <v>22</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="65">
         <f>C27*2</f>
         <v>44</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1">
-      <c r="A28" s="21" t="s">
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="68"/>
+    </row>
+    <row r="28" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="64">
         <v>26.5</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="65">
         <v>54.99</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="56">
         <v>28.5</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="65">
         <v>59.99</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1">
-      <c r="A30" s="6" t="s">
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="68"/>
+    </row>
+    <row r="30" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="56">
         <v>30</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="65">
         <v>59.99</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="68"/>
+    </row>
+    <row r="31" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="56">
         <v>30</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="65">
         <v>59.99</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="20" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="68"/>
+    </row>
+    <row r="32" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="56">
         <v>27</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="65">
         <f>C32*2</f>
         <v>54</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="E32" s="69"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="71"/>
+    </row>
+    <row r="33" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="56">
         <v>25</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="65">
         <v>49.99</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="49"/>
-    </row>
-    <row r="34" spans="1:7" ht="20" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="56">
         <v>39.5</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="65">
         <v>79.989999999999995</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="49"/>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1">
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>33</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="36">
         <f>C35*2</f>
         <v>66</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="49"/>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1">
+      <c r="E35" s="37"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>33</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <f>C36*2</f>
         <v>66</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="49"/>
-    </row>
-    <row r="37" spans="1:7" ht="20" customHeight="1">
+      <c r="E36" s="37"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>30</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="36">
         <v>59.99</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="49"/>
-    </row>
-    <row r="38" spans="1:7" ht="20" customHeight="1">
+      <c r="E37" s="37"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>32</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="41">
         <v>59.99</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="49"/>
-    </row>
-    <row r="39" spans="1:7" ht="20" customHeight="1">
-      <c r="A39" s="26" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="26">
         <v>28.5</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="43">
         <v>59.99</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="49"/>
-    </row>
-    <row r="40" spans="1:7" ht="20" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="E39" s="37"/>
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="26">
         <v>30</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="23">
         <v>59.99</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="49"/>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1">
-      <c r="A41" s="26" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="26">
         <v>32.5</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="23">
         <v>64.989999999999995</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="49"/>
-    </row>
-    <row r="42" spans="1:7" ht="20" customHeight="1">
-      <c r="A42" s="26" t="s">
+      <c r="E41" s="37"/>
+      <c r="F41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="26">
         <v>44</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="23">
         <v>89.99</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:7" ht="20" customHeight="1">
-      <c r="A43" s="26" t="s">
+      <c r="E42" s="39"/>
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="26">
         <v>25</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="23">
         <v>49.99</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="49"/>
-    </row>
-    <row r="44" spans="1:7" ht="20" customHeight="1">
-      <c r="A44" s="26" t="s">
+      <c r="E43" s="37"/>
+      <c r="F43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="26">
         <v>32.5</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="23">
         <v>64.989999999999995</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="49"/>
-    </row>
-    <row r="45" spans="1:7" ht="20" customHeight="1">
-      <c r="A45" s="26" t="s">
+      <c r="E44" s="37"/>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="26">
         <v>39.5</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <v>79.989999999999995</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" ht="20" customHeight="1">
-      <c r="A46" s="26" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="26">
         <v>48</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="23">
         <v>94.99</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="49"/>
-    </row>
-    <row r="47" spans="1:7" ht="20" customHeight="1">
-      <c r="A47" s="26" t="s">
+      <c r="E46" s="37"/>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="26">
         <v>38.5</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="23">
         <v>79.989999999999995</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="49"/>
-    </row>
-    <row r="48" spans="1:7" ht="20" customHeight="1">
-      <c r="A48" s="31" t="s">
+      <c r="E47" s="37"/>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="26">
         <v>30</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="23">
         <v>59.99</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="49"/>
-    </row>
-    <row r="49" spans="1:7" ht="20" customHeight="1">
-      <c r="A49" s="31" t="s">
+      <c r="E48" s="37"/>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="26">
         <v>32</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="23">
         <f>C49*2</f>
         <v>64</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="49"/>
-    </row>
-    <row r="50" spans="1:7" ht="20" customHeight="1">
-      <c r="A50" s="31" t="s">
+      <c r="E49" s="37"/>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="26">
         <v>32</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="44">
         <v>59.99</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="49"/>
-    </row>
-    <row r="51" spans="1:7" ht="20" customHeight="1">
-      <c r="A51" s="31" t="s">
+      <c r="E50" s="37"/>
+      <c r="F50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="26">
         <v>28</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="44">
         <v>59.99</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="49"/>
-    </row>
-    <row r="52" spans="1:7" ht="20" customHeight="1">
-      <c r="A52" s="31" t="s">
+      <c r="E51" s="37"/>
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="26">
         <v>26.5</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="23">
         <v>54.99</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" ht="20" customHeight="1">
-      <c r="A53" s="31" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="26">
         <v>25</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="45">
         <v>49.99</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="49"/>
-    </row>
-    <row r="54" spans="1:7" ht="20" customHeight="1">
-      <c r="A54" s="34" t="s">
+      <c r="E53" s="37"/>
+      <c r="F53" s="47"/>
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="26">
         <v>32</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="45">
         <f>C54*2</f>
         <v>64</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="49"/>
-    </row>
-    <row r="55" spans="1:7" ht="20" customHeight="1">
-      <c r="A55" s="31" t="s">
+      <c r="E54" s="37"/>
+      <c r="F54" s="47"/>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="26">
         <v>42</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="45">
         <f>C55*2</f>
         <v>84</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="49"/>
-    </row>
-    <row r="56" spans="1:7" ht="20" customHeight="1">
-      <c r="A56" s="34" t="s">
+      <c r="E55" s="37"/>
+      <c r="F55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="26">
         <v>35</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="45">
         <v>69.989999999999995</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="49"/>
-    </row>
-    <row r="57" spans="1:7" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="E56" s="37"/>
+      <c r="F56" s="47"/>
+    </row>
+    <row r="57" spans="1:7" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="23">
         <v>22</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="42">
         <v>49.99</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="49"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="20" customHeight="1">
-      <c r="A58" s="31" t="s">
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="26">
         <v>31</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="45">
         <v>59.99</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="49"/>
-    </row>
-    <row r="59" spans="1:7" ht="20" customHeight="1">
-      <c r="A59" s="24" t="s">
+      <c r="E58" s="37"/>
+      <c r="F58" s="47"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="23">
         <v>32</v>
       </c>
-      <c r="D59" s="44">
+      <c r="D59" s="42">
         <v>59.99</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="49"/>
-    </row>
-    <row r="60" spans="1:7" ht="20" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="E59" s="37"/>
+      <c r="F59" s="47"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C60" s="23">
         <v>24</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="23">
         <v>49.99</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="49"/>
-    </row>
-    <row r="61" spans="1:7" ht="20" customHeight="1">
-      <c r="A61" s="26" t="s">
+      <c r="E60" s="40"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="26">
         <v>24</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="45">
         <v>49.99</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="49"/>
-    </row>
-    <row r="62" spans="1:7" ht="20" customHeight="1">
-      <c r="A62" s="24" t="s">
+      <c r="E61" s="37"/>
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C62" s="23">
         <v>25</v>
       </c>
-      <c r="D62" s="44">
+      <c r="D62" s="42">
         <v>49.99</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="49"/>
-    </row>
-    <row r="63" spans="1:7" ht="20" customHeight="1">
-      <c r="A63" s="31" t="s">
+      <c r="E62" s="37"/>
+      <c r="F62" s="47"/>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="26">
         <v>25</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="23">
         <v>49.99</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="35"/>
-    </row>
-    <row r="64" spans="1:7" ht="20" customHeight="1">
-      <c r="A64" s="31" t="s">
+      <c r="E63" s="46"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="26">
         <v>32</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="23">
         <v>59.99</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="49"/>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1">
-      <c r="A65" s="31" t="s">
+      <c r="E64" s="37"/>
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="26">
         <v>28.5</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="23">
         <v>59.99</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="49"/>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1">
-      <c r="A66" s="31" t="s">
+      <c r="E65" s="37"/>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="26">
         <v>32</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="23">
         <v>59.99</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="49"/>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A67" s="31" t="s">
+      <c r="E66" s="39"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="26">
         <v>24</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="23">
         <v>49.99</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="49"/>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="E68" s="54" t="s">
+      <c r="E67" s="37"/>
+      <c r="F67" s="47"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="F68" s="55"/>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1"/>
-    <row r="70" spans="1:6" ht="20" customHeight="1"/>
-    <row r="71" spans="1:6" ht="20" customHeight="1"/>
-    <row r="72" spans="1:6" ht="20" customHeight="1"/>
-    <row r="73" spans="1:6" ht="20" customHeight="1"/>
-    <row r="74" spans="1:6" ht="20" customHeight="1"/>
-    <row r="75" spans="1:6" ht="20" customHeight="1"/>
-    <row r="76" spans="1:6" ht="20" customHeight="1"/>
-    <row r="77" spans="1:6" ht="20" customHeight="1"/>
-    <row r="78" spans="1:6" ht="20" customHeight="1"/>
-    <row r="79" spans="1:6" ht="20" customHeight="1"/>
+      <c r="F68" s="53"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:L275">
     <sortCondition ref="A2:A275"/>
@@ -2627,25 +2669,25 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2658,62 +2700,62 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="23">
         <v>10</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="42">
         <v>19.989999999999998</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="24" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>10</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="42">
         <v>19.989999999999998</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="E4" s="54" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1"/>
-    <row r="6" spans="1:6" ht="20" customHeight="1"/>
-    <row r="7" spans="1:6" ht="20" customHeight="1"/>
-    <row r="8" spans="1:6" ht="20" customHeight="1"/>
-    <row r="9" spans="1:6" ht="20" customHeight="1"/>
-    <row r="10" spans="1:6" ht="20" customHeight="1"/>
-    <row r="11" spans="1:6" ht="20" customHeight="1"/>
-    <row r="12" spans="1:6" ht="20" customHeight="1"/>
-    <row r="13" spans="1:6" ht="20" customHeight="1"/>
-    <row r="14" spans="1:6" ht="20" customHeight="1"/>
-    <row r="15" spans="1:6" ht="20" customHeight="1"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
@@ -2737,18 +2779,18 @@
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,179 +2803,179 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>4.5</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>9.99</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>5</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <f>C3*2</f>
         <v>10</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>4.5</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>9.99</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>4</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>9.99</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>4</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>9.99</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>4.5</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>9.99</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>4</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>9.99</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>4</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>9.99</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" thickBot="1">
-      <c r="A10" s="31" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>5</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>9.99</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" thickBot="1">
-      <c r="E11" s="54" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1"/>
-    <row r="13" spans="1:7" ht="20" customHeight="1"/>
-    <row r="14" spans="1:7" ht="20" customHeight="1"/>
-    <row r="15" spans="1:7" ht="20" customHeight="1"/>
-    <row r="16" spans="1:7" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1"/>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
@@ -2950,25 +2992,25 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,128 +3023,128 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>20</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>39.99</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>22</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <f>C3*2</f>
         <v>44</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>26</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>54.99</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>22.5</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <f>C5*2</f>
         <v>45</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>35</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="42">
         <v>69.989999999999995</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="49"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A7" s="31" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>25</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>49.99</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="E8" s="54" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1"/>
-    <row r="10" spans="1:6" ht="20" customHeight="1"/>
-    <row r="11" spans="1:6" ht="20" customHeight="1"/>
-    <row r="12" spans="1:6" ht="20" customHeight="1"/>
-    <row r="13" spans="1:6" ht="20" customHeight="1"/>
-    <row r="14" spans="1:6" ht="20" customHeight="1"/>
-    <row r="15" spans="1:6" ht="20" customHeight="1"/>
-    <row r="16" spans="1:6" ht="20" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
@@ -3126,18 +3168,18 @@
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3150,58 +3192,58 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>8.25</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <f>C2*2</f>
         <v>16.5</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>7.5</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <f>C3*2</f>
         <v>15</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1"/>
-    <row r="5" spans="1:6" ht="20" customHeight="1"/>
-    <row r="6" spans="1:6" ht="20" customHeight="1"/>
-    <row r="7" spans="1:6" ht="20" customHeight="1"/>
-    <row r="8" spans="1:6" ht="20" customHeight="1"/>
-    <row r="9" spans="1:6" ht="20" customHeight="1"/>
-    <row r="10" spans="1:6" ht="20" customHeight="1"/>
-    <row r="11" spans="1:6" ht="20" customHeight="1"/>
-    <row r="12" spans="1:6" ht="20" customHeight="1"/>
-    <row r="13" spans="1:6" ht="20" customHeight="1"/>
-    <row r="14" spans="1:6" ht="20" customHeight="1"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
@@ -3225,18 +3267,18 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,231 +3291,231 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>140</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>189.99</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>140</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="38">
         <v>189.99</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>19.989999999999998</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>20.5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>39.99</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="E5" s="40"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>25</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>49.99</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="49"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>5</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>9.99</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>9.99</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>38</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>74.989999999999995</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>20</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>39.99</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1"/>
-    <row r="12" spans="1:7" ht="20" customHeight="1"/>
-    <row r="13" spans="1:7" ht="20" customHeight="1"/>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+      <c r="E10" s="37"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" s="37" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>

--- a/source/2015 Master Product Listing Clay Internet.xlsx
+++ b/source/2015 Master Product Listing Clay Internet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51195" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Full Head Masks" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="375">
   <si>
     <t>PRODUCT DESCRIPTION</t>
   </si>
@@ -295,9 +295,6 @@
     <t>ELLG101</t>
   </si>
   <si>
-    <t>Nightbreed -  Narcisse Mask</t>
-  </si>
-  <si>
     <t>TTLG107</t>
   </si>
   <si>
@@ -614,6 +611,552 @@
   </si>
   <si>
     <t>Costume</t>
+  </si>
+  <si>
+    <t>alien_pilot_full_head_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>Bloody Face</t>
+  </si>
+  <si>
+    <t>Pepper Mask</t>
+  </si>
+  <si>
+    <t>american_horror_story_pepper_mask.html</t>
+  </si>
+  <si>
+    <t>Clown Mouth</t>
+  </si>
+  <si>
+    <t>american_horror_story_twisty_the_clown_mouth_attachment.html</t>
+  </si>
+  <si>
+    <t>costume_full_head_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>Bald Demon</t>
+  </si>
+  <si>
+    <t>an_american_werewolf_in_london_bald_demon_mask.html</t>
+  </si>
+  <si>
+    <t>The Werewolf</t>
+  </si>
+  <si>
+    <t>an_american_werewolf_in_london_the_werewolf_mask.html</t>
+  </si>
+  <si>
+    <t>Warmonger</t>
+  </si>
+  <si>
+    <t>an_american_werewolf_in_london_warmonger_mask.html</t>
+  </si>
+  <si>
+    <t>Werewolf Demon</t>
+  </si>
+  <si>
+    <t>an_american_werewolf_in_london_werewolf_demon_mask.html</t>
+  </si>
+  <si>
+    <t>Leslie Vernon</t>
+  </si>
+  <si>
+    <t>behind_the_mask_the_rise_of_leslie_vernon_leslie_vernon_mask.html</t>
+  </si>
+  <si>
+    <t>Calibus</t>
+  </si>
+  <si>
+    <t>clash_of_the_titans_1981_calibus_mask.html</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>corpse_bride_emily_mask_comes_with_veil_eye_lashes_and_dread_lock_hair.html</t>
+  </si>
+  <si>
+    <t>Emily Standard</t>
+  </si>
+  <si>
+    <t>corpse_bride_emily_mask_standard.html</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>corpse_bride_victor_mask.html</t>
+  </si>
+  <si>
+    <t>Atomic Alien</t>
+  </si>
+  <si>
+    <t>daniel_horne_collection_atomic_alien_brainiac.html</t>
+  </si>
+  <si>
+    <t>Backwoods</t>
+  </si>
+  <si>
+    <t>daniel_horne_collection_backwoods_billy.html</t>
+  </si>
+  <si>
+    <t>Goggle Zombie</t>
+  </si>
+  <si>
+    <t>daniel_horne_collection_goggle_zombie.html</t>
+  </si>
+  <si>
+    <t>Billy Puppet</t>
+  </si>
+  <si>
+    <t>dead_silence_billy_puppet_mask.html</t>
+  </si>
+  <si>
+    <t>Love Craft</t>
+  </si>
+  <si>
+    <t>death_studios_collection_love_craft_mask.html</t>
+  </si>
+  <si>
+    <t>Maggot Arm</t>
+  </si>
+  <si>
+    <t>death_studios_collection_maggot_arm_puppet.html</t>
+  </si>
+  <si>
+    <t>Upside Down</t>
+  </si>
+  <si>
+    <t>death_studios_collection_upside_down_mask.html</t>
+  </si>
+  <si>
+    <t>Zombie Dog</t>
+  </si>
+  <si>
+    <t>death_studios_collection_zombie_dog_arm_puppet.html</t>
+  </si>
+  <si>
+    <t>Blasted</t>
+  </si>
+  <si>
+    <t>distortions_unlimited_collection_blasted_mask.html</t>
+  </si>
+  <si>
+    <t>Diseased</t>
+  </si>
+  <si>
+    <t>distortions_unlimited_collection_diseased_mask.html</t>
+  </si>
+  <si>
+    <t>DUI</t>
+  </si>
+  <si>
+    <t>distortions_unlimited_collection_dui_mask.html</t>
+  </si>
+  <si>
+    <t>Lumpy</t>
+  </si>
+  <si>
+    <t>distortions_unlimited_collection_lumpy_mask.html</t>
+  </si>
+  <si>
+    <t>Ingles Zombie</t>
+  </si>
+  <si>
+    <t>ec_comics_collection_haunt_of_fear_gram_ingles_zombie.html</t>
+  </si>
+  <si>
+    <t>Craigmoore</t>
+  </si>
+  <si>
+    <t>ec_comics_collection_tales_from_the_crypt_craigmoore_zombie.html</t>
+  </si>
+  <si>
+    <t>Quicksand</t>
+  </si>
+  <si>
+    <t>ec_comics_collection_tales_from_the_crypt_quicksand_zombie.html</t>
+  </si>
+  <si>
+    <t>Frosty</t>
+  </si>
+  <si>
+    <t>frosty_the_snowman_frosty_mask.html</t>
+  </si>
+  <si>
+    <t>fulci_zombie_full_head_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>Ali Gator</t>
+  </si>
+  <si>
+    <t>garbage_pail_kids_ali_gator_mask.html</t>
+  </si>
+  <si>
+    <t>Boney Tony</t>
+  </si>
+  <si>
+    <t>garbage_pail_kids_boney_tony_mask.html</t>
+  </si>
+  <si>
+    <t>Creepy Carol</t>
+  </si>
+  <si>
+    <t>garbage_pail_kids_creepy_carol_mask.html</t>
+  </si>
+  <si>
+    <t>Zeke Freak</t>
+  </si>
+  <si>
+    <t>garbage_pail_kids_zeke_freak_mask.html</t>
+  </si>
+  <si>
+    <t>Ben Tramer</t>
+  </si>
+  <si>
+    <t>Victor Crowley</t>
+  </si>
+  <si>
+    <t>hatchet_victor_crowley_full_head_mask.html</t>
+  </si>
+  <si>
+    <t>Captain Spaulding</t>
+  </si>
+  <si>
+    <t>house_of_1000_corpes_captain_spaulding_mask.html</t>
+  </si>
+  <si>
+    <t>Otis Driftwood</t>
+  </si>
+  <si>
+    <t>house_of_1000_corpes_otis_driftwood_mask.html</t>
+  </si>
+  <si>
+    <t>Ravelli</t>
+  </si>
+  <si>
+    <t>house_of_1000_corpes_ravelli_mask.html</t>
+  </si>
+  <si>
+    <t>Tiny Firefly</t>
+  </si>
+  <si>
+    <t>house_of_1000_corpes_tiny_firefly_mask.html</t>
+  </si>
+  <si>
+    <t>The Creeper</t>
+  </si>
+  <si>
+    <t>house_of_horrors_the_creeper.html</t>
+  </si>
+  <si>
+    <t>Bruce the Shark</t>
+  </si>
+  <si>
+    <t>jaws_bruce_the_shark_mask.html</t>
+  </si>
+  <si>
+    <t>Klownzilla</t>
+  </si>
+  <si>
+    <t>killer_klowns_from_outer_space_klownzilla_mask.html</t>
+  </si>
+  <si>
+    <t>Latex</t>
+  </si>
+  <si>
+    <t>king_kong_latex_mask.html</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>land_of_the_dead_butcher_mask.html</t>
+  </si>
+  <si>
+    <t>After Midnight</t>
+  </si>
+  <si>
+    <t>london_after_midnight_mask</t>
+  </si>
+  <si>
+    <t>Yetch</t>
+  </si>
+  <si>
+    <t>mad_monster_party_yetch</t>
+  </si>
+  <si>
+    <t>Drone Martian</t>
+  </si>
+  <si>
+    <t>mars_attacks_drone_martian_full_head_mask.html</t>
+  </si>
+  <si>
+    <t>The Fiend</t>
+  </si>
+  <si>
+    <t>misfits_the_fiend_mask.html</t>
+  </si>
+  <si>
+    <t>Warpig</t>
+  </si>
+  <si>
+    <t>motorhead_warpig_mask.html</t>
+  </si>
+  <si>
+    <t>Narcisse</t>
+  </si>
+  <si>
+    <t>nightbreed_narcisse_mask.html</t>
+  </si>
+  <si>
+    <t>Berzerker</t>
+  </si>
+  <si>
+    <t>nightbreed_berzerker_mask.html</t>
+  </si>
+  <si>
+    <t>Peloquin</t>
+  </si>
+  <si>
+    <t>nightbreed_peloquin_mask.html</t>
+  </si>
+  <si>
+    <t>rotting_pumpkin.html</t>
+  </si>
+  <si>
+    <t>Reverse Bear Trap</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>the_devils_rejects_otis_mask.html</t>
+  </si>
+  <si>
+    <t>El Super Beasto</t>
+  </si>
+  <si>
+    <t>the_haunted_world_of_el_super_beasto_el_super_beasto_mask.html</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>titan_find_thanatoid.html</t>
+  </si>
+  <si>
+    <t>Gluten Freak V2</t>
+  </si>
+  <si>
+    <t>toxictoons_gluten_freak_version_2.html</t>
+  </si>
+  <si>
+    <t>SAM Burlap</t>
+  </si>
+  <si>
+    <t>SAM Unmasked</t>
+  </si>
+  <si>
+    <t>Beard Walker</t>
+  </si>
+  <si>
+    <t>walking_dead_beard_walker_mask.html</t>
+  </si>
+  <si>
+    <t>Charred Walker</t>
+  </si>
+  <si>
+    <t>Merle Walker</t>
+  </si>
+  <si>
+    <t>walking_dead_merle_walker_mask.html</t>
+  </si>
+  <si>
+    <t>Old Clown</t>
+  </si>
+  <si>
+    <t>old_clown_face_mask.html</t>
+  </si>
+  <si>
+    <t>Old Man</t>
+  </si>
+  <si>
+    <t>old_man_face_mask.html</t>
+  </si>
+  <si>
+    <t>Scars Appliances</t>
+  </si>
+  <si>
+    <t>rob_zombie_scars_appliances.html</t>
+  </si>
+  <si>
+    <t>Rocky Balboa</t>
+  </si>
+  <si>
+    <t>rocky_rocky_balboa_appliances.html</t>
+  </si>
+  <si>
+    <t>L Walker Decaying</t>
+  </si>
+  <si>
+    <t>walking_dead_large_walker_decaying_appliance.html</t>
+  </si>
+  <si>
+    <t>L Walker Gash</t>
+  </si>
+  <si>
+    <t>walking_dead_large_walker_gash_appliance.html</t>
+  </si>
+  <si>
+    <t>M Walker Decaying</t>
+  </si>
+  <si>
+    <t>walking_dead_medium_walker_decaying_appliance.html</t>
+  </si>
+  <si>
+    <t>Compound Fracture</t>
+  </si>
+  <si>
+    <t>walking_dead_walker_compound_fracture_appliance.html</t>
+  </si>
+  <si>
+    <t>Large Bites</t>
+  </si>
+  <si>
+    <t>walking_dead_walker_large_bites_appliance.html</t>
+  </si>
+  <si>
+    <t>Walker Rot</t>
+  </si>
+  <si>
+    <t>walking_dead_walker_rot_appliance.html</t>
+  </si>
+  <si>
+    <t>Walker Wound</t>
+  </si>
+  <si>
+    <t>walking_dead_walker_wound_assortment_pack_appliances.html</t>
+  </si>
+  <si>
+    <t>Clown Costume</t>
+  </si>
+  <si>
+    <t>american_horror_story_twisty_the_clown_costume.html</t>
+  </si>
+  <si>
+    <t>house_of_1000_corpes_captain_spaulding_costume.html</t>
+  </si>
+  <si>
+    <t>Heidi Costume</t>
+  </si>
+  <si>
+    <t>lords_of_salem_heidi_costume.html</t>
+  </si>
+  <si>
+    <t>Dead Girl</t>
+  </si>
+  <si>
+    <t>rob_zombie_living_dead_girl_costume.html</t>
+  </si>
+  <si>
+    <t>saw_billy_puppet_costume.html</t>
+  </si>
+  <si>
+    <t>SAM Costume</t>
+  </si>
+  <si>
+    <t>trick_r_treat_sam_costume.html</t>
+  </si>
+  <si>
+    <t>house_of_1000_corpes_captain_spaulding_makeup_kit.html</t>
+  </si>
+  <si>
+    <t>Heidi Makeup</t>
+  </si>
+  <si>
+    <t>lords_of_salem_heidi_makeup_kit.html</t>
+  </si>
+  <si>
+    <t>Pepper Static</t>
+  </si>
+  <si>
+    <t>american_horror_story_pepper_static_prop.html</t>
+  </si>
+  <si>
+    <t>Clown Static</t>
+  </si>
+  <si>
+    <t>american_horror_story_twisty_the_clown_static_prop.html</t>
+  </si>
+  <si>
+    <t>behind_the_mask_the_rise_of_leslie_vernon_sickle_prop.html</t>
+  </si>
+  <si>
+    <t>Dead Head</t>
+  </si>
+  <si>
+    <t>dead_head_zombie_prop.html</t>
+  </si>
+  <si>
+    <t>Glowing Ambe</t>
+  </si>
+  <si>
+    <t>garbage_pail_kids_glowing_amber_prop.html</t>
+  </si>
+  <si>
+    <t>SAM Bitten</t>
+  </si>
+  <si>
+    <t>trick_r_treat_sam_bitten_lillipop_prop.html</t>
+  </si>
+  <si>
+    <t>SAM Unbitten</t>
+  </si>
+  <si>
+    <t>trick_r_treat_sam_unbitten_lillipop_prop.html</t>
+  </si>
+  <si>
+    <t>Hersal Servered</t>
+  </si>
+  <si>
+    <t>walking_dead_hersal_servered_head_prop.html</t>
+  </si>
+  <si>
+    <t>Kandarian Dagger</t>
+  </si>
+  <si>
+    <t>evil_dead_2_kandarian_dagger.html</t>
+  </si>
+  <si>
+    <t>trick_r_treat_sam_burlap_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>Twisty</t>
+  </si>
+  <si>
+    <t>twisty_the_clown_american_horror_story_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>saw_reverse_bear_trap_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>trick_r_treat_sam_uncovered_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>the_walking_dead_charred_walker_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>american_horror_story_bloody_face_halloween_mask.html</t>
+  </si>
+  <si>
+    <t>halloween_2_ben_tramer_head_mask.html</t>
+  </si>
+  <si>
+    <t>Sickle Prop</t>
+  </si>
+  <si>
+    <t>Nightbreed - Narcisse Mask</t>
   </si>
 </sst>
 </file>
@@ -625,7 +1168,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -665,24 +1208,48 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,18 +1258,6 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -724,12 +1279,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -819,10 +1388,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -932,302 +1554,244 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="110" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="110" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="111" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="111" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="112" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="8" xfId="112" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="112" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="112" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="113"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="114"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="114" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="113" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="112" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="110" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="110" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="110" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="110" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="110" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="111">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+  <cellStyles count="115">
+    <cellStyle name="Bad" xfId="111" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="113" builtinId="22"/>
+    <cellStyle name="Currency 2" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Good" xfId="110" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="112" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="108"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="107"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1508,1154 +2072,1552 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="A67:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18">
+        <v>20</v>
+      </c>
+      <c r="D2" s="18">
+        <v>39.99</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18">
+        <v>30</v>
+      </c>
+      <c r="D3" s="18">
+        <v>59.99</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="56">
-        <v>20</v>
-      </c>
-      <c r="D2" s="57">
-        <v>39.99</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="56">
-        <v>30</v>
-      </c>
-      <c r="D3" s="57">
-        <v>59.99</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="C4" s="18">
+        <v>24</v>
+      </c>
+      <c r="D4" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18">
+        <v>39.5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="18">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18">
+        <v>24.99</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="56">
-        <v>24</v>
-      </c>
-      <c r="D4" s="57">
-        <v>49.99</v>
-      </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-    </row>
-    <row r="5" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="56">
+      <c r="C7" s="20">
         <v>39.5</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D7" s="20">
         <v>79.989999999999995</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="56">
-        <v>12</v>
-      </c>
-      <c r="D6" s="57">
-        <v>24.99</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="56">
-        <v>39.5</v>
-      </c>
-      <c r="D7" s="57">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="18">
         <v>26.5</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="18">
         <v>54.99</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-    </row>
-    <row r="9" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="56">
+      <c r="C9" s="18">
         <v>56</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="18">
         <f>C9*2</f>
         <v>112</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="56">
+      <c r="B10" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="18">
         <v>34.5</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="18">
         <v>69.989999999999995</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="18">
         <v>42</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="18">
         <f>C11*2</f>
         <v>84</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="64">
+      <c r="C12" s="18">
         <v>20</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="18">
         <v>39.99</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="56">
+      <c r="B13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="18">
         <v>28.5</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="18">
         <v>59.99</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:6" s="60" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="55" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="18">
         <v>64</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="18">
         <f>C14*2</f>
         <v>128</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:6" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="55" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="56">
+      <c r="B15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="18">
         <v>32</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="18">
         <v>59.99</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="1:6" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="18">
         <v>23</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="18">
         <v>49.99</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-    </row>
-    <row r="17" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="66" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="18">
         <v>22</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="18">
         <v>49.99</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-    </row>
-    <row r="18" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="18">
         <v>25</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="18">
         <v>49.99</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="18">
         <v>22</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="18">
         <v>49.99</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-    </row>
-    <row r="20" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="18">
         <v>28.5</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="18">
         <v>59.99</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-    </row>
-    <row r="21" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="64">
+      <c r="C21" s="18">
         <v>23</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="18">
         <f>C21*2</f>
         <v>46</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="68"/>
-    </row>
-    <row r="22" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="64">
+      <c r="C22" s="18">
         <v>26</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="18">
         <f>C22*2</f>
         <v>52</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="68"/>
-    </row>
-    <row r="23" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="63" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="64">
+      <c r="B23" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="18">
         <v>23</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="18">
         <f>C23*2</f>
         <v>46</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="68"/>
-    </row>
-    <row r="24" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="63" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="64">
+      <c r="B24" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="18">
         <v>28</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="18">
         <f>C24*2</f>
         <v>56</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="68"/>
-    </row>
-    <row r="25" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="18">
         <v>29.5</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="18">
         <v>59.99</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="68"/>
-    </row>
-    <row r="26" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="18">
         <v>29.5</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="18">
         <v>59.99</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="68"/>
-    </row>
-    <row r="27" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="70" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="18">
         <v>22</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="18">
         <f>C27*2</f>
         <v>44</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="18">
         <v>26.5</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="18">
         <v>54.99</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="18">
         <v>28.5</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="18">
         <v>59.99</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="68"/>
-    </row>
-    <row r="30" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="18">
         <v>30</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="18">
         <v>59.99</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="68"/>
-    </row>
-    <row r="31" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="18">
         <v>30</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="18">
         <v>59.99</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="68"/>
-    </row>
-    <row r="32" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="18">
         <v>27</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="18">
         <f>C32*2</f>
         <v>54</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="71"/>
-    </row>
-    <row r="33" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="18">
         <v>25</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="18">
         <v>49.99</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="1:7" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="18">
         <v>39.5</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="18">
         <v>79.989999999999995</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="18">
         <v>33</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="18">
         <f>C35*2</f>
         <v>66</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="18">
         <v>33</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="18">
         <f>C36*2</f>
         <v>66</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="B37" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="18">
         <v>30</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="18">
         <v>59.99</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="18">
         <v>32</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="18">
         <v>59.99</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="18">
         <v>28.5</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="18">
         <v>59.99</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="18">
         <v>30</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="18">
         <v>59.99</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="18">
+        <v>32.5</v>
+      </c>
+      <c r="D41" s="18">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="26">
+      <c r="B42" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="18">
+        <v>44</v>
+      </c>
+      <c r="D42" s="18">
+        <v>89.99</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="18">
+        <v>25</v>
+      </c>
+      <c r="D43" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="18">
         <v>32.5</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D44" s="18">
         <v>64.989999999999995</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="26">
-        <v>44</v>
-      </c>
-      <c r="D42" s="23">
-        <v>89.99</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="26">
-        <v>25</v>
-      </c>
-      <c r="D43" s="23">
-        <v>49.99</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="26">
-        <v>32.5</v>
-      </c>
-      <c r="D44" s="23">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="B45" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="18">
+        <v>39.5</v>
+      </c>
+      <c r="D45" s="18">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="18">
+        <v>48</v>
+      </c>
+      <c r="D46" s="18">
+        <v>94.99</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="18">
+        <v>38.5</v>
+      </c>
+      <c r="D47" s="18">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="26">
-        <v>39.5</v>
-      </c>
-      <c r="D45" s="23">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="26">
-        <v>48</v>
-      </c>
-      <c r="D46" s="23">
-        <v>94.99</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="26">
-        <v>38.5</v>
-      </c>
-      <c r="D47" s="23">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="26">
+      <c r="C48" s="18">
         <v>30</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="18">
         <v>59.99</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="18">
         <v>32</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="18">
         <f>C49*2</f>
         <v>64</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="18">
         <v>32</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="18">
         <v>59.99</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="18">
+        <v>28</v>
+      </c>
+      <c r="D51" s="18">
+        <v>59.99</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="D52" s="18">
+        <v>54.99</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="18">
+        <v>25</v>
+      </c>
+      <c r="D53" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="18">
+        <v>42</v>
+      </c>
+      <c r="D54" s="18">
+        <f>C54*2</f>
+        <v>84</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="18">
+        <v>32</v>
+      </c>
+      <c r="D55" s="18">
+        <f>C55*2</f>
+        <v>64</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="26">
-        <v>28</v>
-      </c>
-      <c r="D51" s="44">
+      <c r="C56" s="18">
+        <v>35</v>
+      </c>
+      <c r="D56" s="18">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="18">
+        <v>22</v>
+      </c>
+      <c r="D57" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="18">
+        <v>31</v>
+      </c>
+      <c r="D58" s="18">
         <v>59.99</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="26">
-        <v>26.5</v>
-      </c>
-      <c r="D52" s="23">
-        <v>54.99</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="26">
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="18">
+        <v>32</v>
+      </c>
+      <c r="D59" s="18">
+        <v>59.99</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="18">
+        <v>24</v>
+      </c>
+      <c r="D60" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="18">
+        <v>24</v>
+      </c>
+      <c r="D61" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="18">
         <v>25</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D62" s="18">
         <v>49.99</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="47"/>
-    </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="26">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="18">
+        <v>25</v>
+      </c>
+      <c r="D63" s="18">
+        <v>49.99</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="18">
         <v>32</v>
       </c>
-      <c r="D54" s="45">
-        <f>C54*2</f>
-        <v>64</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="26">
-        <v>42</v>
-      </c>
-      <c r="D55" s="45">
-        <f>C55*2</f>
-        <v>84</v>
-      </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="47"/>
-    </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="26">
-        <v>35</v>
-      </c>
-      <c r="D56" s="45">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="47"/>
-    </row>
-    <row r="57" spans="1:7" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="23">
-        <v>22</v>
-      </c>
-      <c r="D57" s="42">
+      <c r="D64" s="18">
+        <v>59.99</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D65" s="18">
+        <v>59.99</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="18">
+        <v>32</v>
+      </c>
+      <c r="D66" s="18">
+        <v>59.99</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="18">
+        <v>24</v>
+      </c>
+      <c r="D67" s="18">
         <v>49.99</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="26">
-        <v>31</v>
-      </c>
-      <c r="D58" s="45">
-        <v>59.99</v>
-      </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="23">
-        <v>32</v>
-      </c>
-      <c r="D59" s="42">
-        <v>59.99</v>
-      </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="23">
-        <v>24</v>
-      </c>
-      <c r="D60" s="23">
-        <v>49.99</v>
-      </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="26">
-        <v>24</v>
-      </c>
-      <c r="D61" s="45">
-        <v>49.99</v>
-      </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="47"/>
-    </row>
-    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="23">
-        <v>25</v>
-      </c>
-      <c r="D62" s="42">
-        <v>49.99</v>
-      </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="26">
-        <v>25</v>
-      </c>
-      <c r="D63" s="23">
-        <v>49.99</v>
-      </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="33"/>
-    </row>
-    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="26">
-        <v>32</v>
-      </c>
-      <c r="D64" s="23">
-        <v>59.99</v>
-      </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="47"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="26">
-        <v>28.5</v>
-      </c>
-      <c r="D65" s="23">
-        <v>59.99</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="47"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="26">
-        <v>32</v>
-      </c>
-      <c r="D66" s="23">
-        <v>59.99</v>
-      </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="47"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="26">
-        <v>24</v>
-      </c>
-      <c r="D67" s="23">
-        <v>49.99</v>
-      </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="47"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E68" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F68" s="53"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:L275">
-    <sortCondition ref="A2:A275"/>
+  <sortState ref="A54:H56">
+    <sortCondition ref="A54"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
+  <pageSetup scale="35" fitToHeight="13" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2669,93 +3631,115 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="17.28515625" style="3"/>
+    <col min="8" max="8" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="C2" s="18">
         <v>10</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="C3" s="18">
         <v>10</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="18">
         <v>19.989999999999998</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
@@ -2772,25 +3756,27 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2803,173 +3789,223 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="26">
+      <c r="B2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="38">
         <v>4.5</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="39">
         <v>9.99</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="26">
+      <c r="B3" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="38">
         <v>5</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="39">
         <f>C3*2</f>
         <v>10</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="D4" s="39">
+        <v>9.99</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="C5" s="38">
+        <v>4</v>
+      </c>
+      <c r="D5" s="39">
+        <v>9.99</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="38">
+        <v>4</v>
+      </c>
+      <c r="D6" s="39">
+        <v>9.99</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="38">
         <v>4.5</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D7" s="39">
         <v>9.99</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="38">
         <v>4</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D8" s="39">
         <v>9.99</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="E8" s="18"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="38">
         <v>4</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D9" s="39">
         <v>9.99</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="26">
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="38">
+        <v>5</v>
+      </c>
+      <c r="D10" s="39">
         <v>9.99</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="26">
-        <v>4</v>
-      </c>
-      <c r="D8" s="23">
-        <v>9.99</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="26">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23">
-        <v>9.99</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="26">
-        <v>5</v>
-      </c>
-      <c r="D10" s="23">
-        <v>9.99</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2992,25 +4028,27 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3023,125 +4061,161 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="46">
         <v>20</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="47">
         <v>39.99</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="B3" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="38">
         <v>22</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="39">
         <f>C3*2</f>
         <v>44</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="38">
         <v>26</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="39">
         <v>54.99</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="26">
+      <c r="B5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="38">
         <v>22.5</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="39">
         <f>C5*2</f>
         <v>45</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="39">
         <v>35</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="39">
         <v>69.989999999999995</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="26">
+      <c r="B7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="38">
         <v>25</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="39">
         <v>49.99</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3161,25 +4235,27 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3192,58 +4268,70 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="38">
         <v>8.25</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="39">
         <f>C2*2</f>
         <v>16.5</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="38">
         <v>7.5</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="39">
         <f>C3*2</f>
         <v>15</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
@@ -3260,25 +4348,27 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3291,235 +4381,292 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C2" s="46">
         <v>140</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="47">
         <v>189.99</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="46">
+        <v>140</v>
+      </c>
+      <c r="D3" s="47">
+        <v>189.99</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="49">
+        <v>10</v>
+      </c>
+      <c r="D4" s="49">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="30">
+        <v>20.5</v>
+      </c>
+      <c r="D5" s="49">
+        <v>39.99</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="49">
+        <v>20</v>
+      </c>
+      <c r="D6" s="49">
+        <v>39.99</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="7">
-        <v>140</v>
-      </c>
-      <c r="D3" s="38">
-        <v>189.99</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="13">
-        <v>10</v>
-      </c>
-      <c r="D4" s="36">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="17">
-        <v>20.5</v>
-      </c>
-      <c r="D5" s="13">
-        <v>39.99</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="46">
         <v>25</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D7" s="49">
         <v>49.99</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="26">
+      <c r="B8" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="38">
         <v>5</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D8" s="39">
         <v>9.99</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="26">
+      <c r="B9" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="38">
         <v>5</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D9" s="39">
         <v>9.99</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C10" s="38">
         <v>38</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D10" s="39">
         <v>74.989999999999995</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="13">
-        <v>20</v>
-      </c>
-      <c r="D10" s="36">
-        <v>39.99</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A3:H10">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.2" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="13" orientation="portrait"/>
   <extLst>
